--- a/data/trans_dic/P36B14_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,4%</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>79,96; 93,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>70,8; 88,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>84,05; 95,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>79,5; 90,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>83,86; 92,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>77,42; 88,46</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,63%</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>87,31; 92,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>67,84; 76,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>86,64; 91,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>75,2; 81,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>87,64; 91,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>72,99; 78,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,08%</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>80,5; 85,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>64,41; 73,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>84,37; 88,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>69,42; 74,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>83,22; 86,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>67,83; 72,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,69%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>79,42; 85,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>71,0; 78,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>79,77; 85,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>77,69; 87,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>80,68; 84,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>75,98; 83,2</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,62%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,77%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>81,35; 86,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>67,15; 73,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>85,59; 89,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>73,94; 79,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>84,26; 87,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>71,65; 75,57</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,4%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>83,16; 85,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>69,41; 73,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>85,49; 87,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>75,49; 79,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>84,75; 86,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>73,22; 76,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B14_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,96; 93,13</t>
+          <t>0; 1,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,8; 88,95</t>
+          <t>0; 1,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>84,05; 95,45</t>
+          <t>0; 1,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,5; 90,85</t>
+          <t>0; 0,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,86; 92,34</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,42; 88,46</t>
+          <t>0; 0,53</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>75,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>87,31; 92,36</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,84; 76,23</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,64; 91,9</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,2; 81,27</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,64; 91,42</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,99; 78,17</t>
+          <t>0; 0,12</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,5; 85,2</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>64,41; 73,41</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,37; 88,72</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,42; 74,66</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,22; 86,42</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,83; 72,87</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>82,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>75,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>82,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>78,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,42; 85,23</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,0; 78,3</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,77; 85,25</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,69; 87,69</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,68; 84,49</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,98; 83,2</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>81,35; 86,03</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,15; 73,62</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,59; 89,73</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>73,94; 79,14</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,26; 87,4</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>71,65; 75,57</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,16; 85,68</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>69,41; 73,31</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>85,49; 87,8</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>75,49; 79,45</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>84,75; 86,46</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,22; 76,12</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B14_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Habitat-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,18</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,13</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0; 0,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>0; 0,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0; 0,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0; 0,02</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P36B14_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B14_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1009,4 +1010,714 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume menos de una bebida azucarada por día</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1669</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1936</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1047</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1278</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2375</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2048</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1214</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1666</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2092</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2045</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1710</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2069</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1825</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1930</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1767</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2083</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1346</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1512</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2017</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2037</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1312</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2028</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>